--- a/data/df_deflactado.xlsx
+++ b/data/df_deflactado.xlsx
@@ -395,7 +395,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>rem_d</t>
+          <t>l</t>
         </is>
       </c>
     </row>

--- a/data/df_deflactado.xlsx
+++ b/data/df_deflactado.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,17 +385,22 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>ci</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>k</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>l</t>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -424,13 +429,16 @@
         <v>115590428173.971</v>
       </c>
       <c r="F2">
+        <v>1914711472.741731</v>
+      </c>
+      <c r="G2">
+        <v>10072822623.14291</v>
+      </c>
+      <c r="H2">
         <v>91729684359.91715</v>
       </c>
-      <c r="G2">
-        <v>1914711472.741731</v>
-      </c>
-      <c r="H2">
-        <v>10072822623.14291</v>
+      <c r="I2">
+        <v>103717218455.8018</v>
       </c>
     </row>
     <row r="3">
@@ -458,13 +466,16 @@
         <v>21544170702.70016</v>
       </c>
       <c r="F3">
+        <v>588187902.1355593</v>
+      </c>
+      <c r="G3">
+        <v>1876189069.211507</v>
+      </c>
+      <c r="H3">
         <v>9568642378.276699</v>
       </c>
-      <c r="G3">
-        <v>588187902.1355593</v>
-      </c>
-      <c r="H3">
-        <v>1876189069.211507</v>
+      <c r="I3">
+        <v>12033019349.62377</v>
       </c>
     </row>
     <row r="4">
@@ -492,13 +503,16 @@
         <v>5512685715.643412</v>
       </c>
       <c r="F4">
+        <v>95742141.56744251</v>
+      </c>
+      <c r="G4">
+        <v>569580923.7245948</v>
+      </c>
+      <c r="H4">
         <v>4426356701.954067</v>
       </c>
-      <c r="G4">
-        <v>95742141.56744251</v>
-      </c>
-      <c r="H4">
-        <v>569580923.7245948</v>
+      <c r="I4">
+        <v>5091679767.246104</v>
       </c>
     </row>
     <row r="5">
@@ -526,13 +540,16 @@
         <v>2737448157.112207</v>
       </c>
       <c r="F5">
+        <v>65630667.43117595</v>
+      </c>
+      <c r="G5">
+        <v>602617855.1417208</v>
+      </c>
+      <c r="H5">
         <v>1700114260.254341</v>
       </c>
-      <c r="G5">
-        <v>65630667.43117595</v>
-      </c>
-      <c r="H5">
-        <v>602617855.1417208</v>
+      <c r="I5">
+        <v>2368362782.827238</v>
       </c>
     </row>
     <row r="6">
@@ -560,13 +577,16 @@
         <v>7969020040.56518</v>
       </c>
       <c r="F6">
+        <v>216725174.6280661</v>
+      </c>
+      <c r="G6">
+        <v>1048642429.056902</v>
+      </c>
+      <c r="H6">
         <v>6671065027.493859</v>
       </c>
-      <c r="G6">
-        <v>216725174.6280661</v>
-      </c>
-      <c r="H6">
-        <v>1048642429.056902</v>
+      <c r="I6">
+        <v>7936432631.178827</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +614,16 @@
         <v>5410969805.550445</v>
       </c>
       <c r="F7">
+        <v>248494868.0121402</v>
+      </c>
+      <c r="G7">
+        <v>665300832.6087167</v>
+      </c>
+      <c r="H7">
         <v>4256223513.396633</v>
       </c>
-      <c r="G7">
-        <v>248494868.0121402</v>
-      </c>
-      <c r="H7">
-        <v>665300832.6087167</v>
+      <c r="I7">
+        <v>5170019214.017489</v>
       </c>
     </row>
     <row r="8">
@@ -628,13 +651,16 @@
         <v>16975263542.16063</v>
       </c>
       <c r="F8">
+        <v>1136205693.339858</v>
+      </c>
+      <c r="G8">
+        <v>848484040.7303814</v>
+      </c>
+      <c r="H8">
         <v>11901510049.2746</v>
       </c>
-      <c r="G8">
-        <v>1136205693.339858</v>
-      </c>
-      <c r="H8">
-        <v>848484040.7303814</v>
+      <c r="I8">
+        <v>13886199783.34484</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +688,16 @@
         <v>3319834334.52059</v>
       </c>
       <c r="F9">
+        <v>119564269.1828848</v>
+      </c>
+      <c r="G9">
+        <v>667221094.3850902</v>
+      </c>
+      <c r="H9">
         <v>1962462510.063861</v>
       </c>
-      <c r="G9">
-        <v>119564269.1828848</v>
-      </c>
-      <c r="H9">
-        <v>667221094.3850902</v>
+      <c r="I9">
+        <v>2749247873.631836</v>
       </c>
     </row>
     <row r="10">
@@ -696,13 +725,16 @@
         <v>44849213034.89599</v>
       </c>
       <c r="F10">
+        <v>623943575.7579025</v>
+      </c>
+      <c r="G10">
+        <v>1311138613.094456</v>
+      </c>
+      <c r="H10">
         <v>34697021585.8392</v>
       </c>
-      <c r="G10">
-        <v>623943575.7579025</v>
-      </c>
-      <c r="H10">
-        <v>1311138613.094456</v>
+      <c r="I10">
+        <v>36632103774.69155</v>
       </c>
     </row>
     <row r="11">
@@ -730,13 +762,16 @@
         <v>21025832666.98968</v>
       </c>
       <c r="F11">
+        <v>426315334.7749253</v>
+      </c>
+      <c r="G11">
+        <v>1938454943.715821</v>
+      </c>
+      <c r="H11">
         <v>16029613667.0079</v>
       </c>
-      <c r="G11">
-        <v>426315334.7749253</v>
-      </c>
-      <c r="H11">
-        <v>1938454943.715821</v>
+      <c r="I11">
+        <v>18394383945.49865</v>
       </c>
     </row>
     <row r="12">
@@ -764,13 +799,16 @@
         <v>7438703167.354869</v>
       </c>
       <c r="F12">
+        <v>263497350.1210035</v>
+      </c>
+      <c r="G12">
+        <v>1581193179.087162</v>
+      </c>
+      <c r="H12">
         <v>4040053296.491299</v>
       </c>
-      <c r="G12">
-        <v>263497350.1210035</v>
-      </c>
-      <c r="H12">
-        <v>1581193179.087162</v>
+      <c r="I12">
+        <v>5884743825.699465</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +836,16 @@
         <v>9960045448.0166</v>
       </c>
       <c r="F13">
+        <v>271628630.5325472</v>
+      </c>
+      <c r="G13">
+        <v>1155848300.720061</v>
+      </c>
+      <c r="H13">
         <v>7351679157.646942</v>
       </c>
-      <c r="G13">
-        <v>271628630.5325472</v>
-      </c>
-      <c r="H13">
-        <v>1155848300.720061</v>
+      <c r="I13">
+        <v>8779156088.89955</v>
       </c>
     </row>
     <row r="14">
@@ -832,13 +873,16 @@
         <v>5253041321.958743</v>
       </c>
       <c r="F14">
+        <v>221269919.4492506</v>
+      </c>
+      <c r="G14">
+        <v>760351118.8924552</v>
+      </c>
+      <c r="H14">
         <v>3191634377.447836</v>
       </c>
-      <c r="G14">
-        <v>221269919.4492506</v>
-      </c>
-      <c r="H14">
-        <v>760351118.8924552</v>
+      <c r="I14">
+        <v>4173255415.789542</v>
       </c>
     </row>
     <row r="15">
@@ -866,13 +910,16 @@
         <v>5412666570.627241</v>
       </c>
       <c r="F15">
+        <v>650302851.6066064</v>
+      </c>
+      <c r="G15">
+        <v>692550219.3968843</v>
+      </c>
+      <c r="H15">
         <v>3395280449.094316</v>
       </c>
-      <c r="G15">
-        <v>650302851.6066064</v>
-      </c>
-      <c r="H15">
-        <v>692550219.3968843</v>
+      <c r="I15">
+        <v>4738133520.097806</v>
       </c>
     </row>
     <row r="16">
@@ -900,13 +947,16 @@
         <v>5802185399.177076</v>
       </c>
       <c r="F16">
+        <v>100760338.9669584</v>
+      </c>
+      <c r="G16">
+        <v>937007693.3080546</v>
+      </c>
+      <c r="H16">
         <v>3648981772.268085</v>
       </c>
-      <c r="G16">
-        <v>100760338.9669584</v>
-      </c>
-      <c r="H16">
-        <v>937007693.3080546</v>
+      <c r="I16">
+        <v>4686749804.543098</v>
       </c>
     </row>
     <row r="17">
@@ -934,13 +984,16 @@
         <v>432912808.0391688</v>
       </c>
       <c r="F17">
+        <v>6502220.542863241</v>
+      </c>
+      <c r="G17">
+        <v>102545959.4362743</v>
+      </c>
+      <c r="H17">
         <v>188166831.5962996</v>
       </c>
-      <c r="G17">
-        <v>6502220.542863241</v>
-      </c>
-      <c r="H17">
-        <v>102545959.4362743</v>
+      <c r="I17">
+        <v>297215011.5754371</v>
       </c>
     </row>
     <row r="18">
@@ -968,13 +1021,16 @@
         <v>1918983239.788966</v>
       </c>
       <c r="F18">
+        <v>41852744.73658176</v>
+      </c>
+      <c r="G18">
+        <v>312968114.6033529</v>
+      </c>
+      <c r="H18">
         <v>1364476039.069534</v>
       </c>
-      <c r="G18">
-        <v>41852744.73658176</v>
-      </c>
-      <c r="H18">
-        <v>312968114.6033529</v>
+      <c r="I18">
+        <v>1719296898.409468</v>
       </c>
     </row>
     <row r="19">
@@ -1002,13 +1058,16 @@
         <v>848508743.7140577</v>
       </c>
       <c r="F19">
+        <v>9061311.623962218</v>
+      </c>
+      <c r="G19">
+        <v>177807602.0246925</v>
+      </c>
+      <c r="H19">
         <v>488399088.6341656</v>
       </c>
-      <c r="G19">
-        <v>9061311.623962218</v>
-      </c>
-      <c r="H19">
-        <v>177807602.0246925</v>
+      <c r="I19">
+        <v>675268002.2828203</v>
       </c>
     </row>
     <row r="20">
@@ -1036,13 +1095,16 @@
         <v>4324067580.275995</v>
       </c>
       <c r="F20">
+        <v>105129576.6092516</v>
+      </c>
+      <c r="G20">
+        <v>798549972.4888818</v>
+      </c>
+      <c r="H20">
         <v>2957139445.15676</v>
       </c>
-      <c r="G20">
-        <v>105129576.6092516</v>
-      </c>
-      <c r="H20">
-        <v>798549972.4888818</v>
+      <c r="I20">
+        <v>3860818994.254893</v>
       </c>
     </row>
     <row r="21">
@@ -1070,13 +1132,16 @@
         <v>1517311558.495734</v>
       </c>
       <c r="F21">
+        <v>17016862.01723371</v>
+      </c>
+      <c r="G21">
+        <v>316393783.2519849</v>
+      </c>
+      <c r="H21">
         <v>916224399.3973733</v>
       </c>
-      <c r="G21">
-        <v>17016862.01723371</v>
-      </c>
-      <c r="H21">
-        <v>316393783.2519849</v>
+      <c r="I21">
+        <v>1249635044.666592</v>
       </c>
     </row>
     <row r="22">
@@ -1104,13 +1169,16 @@
         <v>755971296.1190672</v>
       </c>
       <c r="F22">
+        <v>20869521.13472967</v>
+      </c>
+      <c r="G22">
+        <v>213037037.7717891</v>
+      </c>
+      <c r="H22">
         <v>383639419.1323863</v>
       </c>
-      <c r="G22">
-        <v>20869521.13472967</v>
-      </c>
-      <c r="H22">
-        <v>213037037.7717891</v>
+      <c r="I22">
+        <v>617545978.038905</v>
       </c>
     </row>
     <row r="23">
@@ -1138,13 +1206,16 @@
         <v>2587356987.198049</v>
       </c>
       <c r="F23">
+        <v>58372000.2377887</v>
+      </c>
+      <c r="G23">
+        <v>642235786.4801301</v>
+      </c>
+      <c r="H23">
         <v>1431995730.136765</v>
       </c>
-      <c r="G23">
-        <v>58372000.2377887</v>
-      </c>
-      <c r="H23">
-        <v>642235786.4801301</v>
+      <c r="I23">
+        <v>2132603516.854684</v>
       </c>
     </row>
     <row r="24">
@@ -1172,13 +1243,16 @@
         <v>113665139642.4277</v>
       </c>
       <c r="F24">
+        <v>1898823654.96382</v>
+      </c>
+      <c r="G24">
+        <v>10347195481.46759</v>
+      </c>
+      <c r="H24">
         <v>90385143034.91112</v>
       </c>
-      <c r="G24">
-        <v>1898823654.96382</v>
-      </c>
-      <c r="H24">
-        <v>10347195481.46759</v>
+      <c r="I24">
+        <v>102631162171.3425</v>
       </c>
     </row>
     <row r="25">
@@ -1206,13 +1280,16 @@
         <v>21165144273.17782</v>
       </c>
       <c r="F25">
+        <v>585317383.5006779</v>
+      </c>
+      <c r="G25">
+        <v>1936592527.968398</v>
+      </c>
+      <c r="H25">
         <v>9825181016.259819</v>
       </c>
-      <c r="G25">
-        <v>585317383.5006779</v>
-      </c>
-      <c r="H25">
-        <v>1936592527.968398</v>
+      <c r="I25">
+        <v>12347090927.7289</v>
       </c>
     </row>
     <row r="26">
@@ -1240,13 +1317,16 @@
         <v>5080840669.110887</v>
       </c>
       <c r="F26">
+        <v>90613774.69446248</v>
+      </c>
+      <c r="G26">
+        <v>615003634.7595253</v>
+      </c>
+      <c r="H26">
         <v>3942750440.386253</v>
       </c>
-      <c r="G26">
-        <v>90613774.69446248</v>
-      </c>
-      <c r="H26">
-        <v>615003634.7595253</v>
+      <c r="I26">
+        <v>4648367849.840241</v>
       </c>
     </row>
     <row r="27">
@@ -1274,13 +1354,16 @@
         <v>2367826944.77815</v>
       </c>
       <c r="F27">
+        <v>42701367.742359</v>
+      </c>
+      <c r="G27">
+        <v>524016413.5476145</v>
+      </c>
+      <c r="H27">
         <v>1445323764.792834</v>
       </c>
-      <c r="G27">
-        <v>42701367.742359</v>
-      </c>
-      <c r="H27">
-        <v>524016413.5476145</v>
+      <c r="I27">
+        <v>2012041546.082807</v>
       </c>
     </row>
     <row r="28">
@@ -1308,13 +1391,16 @@
         <v>8523446421.520832</v>
       </c>
       <c r="F28">
+        <v>228926339.5263294</v>
+      </c>
+      <c r="G28">
+        <v>1087389101.60146</v>
+      </c>
+      <c r="H28">
         <v>6781773242.19492</v>
       </c>
-      <c r="G28">
-        <v>228926339.5263294</v>
-      </c>
-      <c r="H28">
-        <v>1087389101.60146</v>
+      <c r="I28">
+        <v>8098088683.322709</v>
       </c>
     </row>
     <row r="29">
@@ -1342,13 +1428,16 @@
         <v>5117680650.500428</v>
       </c>
       <c r="F29">
+        <v>306630645.7192407</v>
+      </c>
+      <c r="G29">
+        <v>488118888.7110605</v>
+      </c>
+      <c r="H29">
         <v>3876492230.676822</v>
       </c>
-      <c r="G29">
-        <v>306630645.7192407</v>
-      </c>
-      <c r="H29">
-        <v>488118888.7110605</v>
+      <c r="I29">
+        <v>4671241765.107123</v>
       </c>
     </row>
     <row r="30">
@@ -1376,13 +1465,16 @@
         <v>17917620228.77216</v>
       </c>
       <c r="F30">
+        <v>1038793391.630576</v>
+      </c>
+      <c r="G30">
+        <v>840308696.9166565</v>
+      </c>
+      <c r="H30">
         <v>11908387482.17797</v>
       </c>
-      <c r="G30">
-        <v>1038793391.630576</v>
-      </c>
-      <c r="H30">
-        <v>840308696.9166565</v>
+      <c r="I30">
+        <v>13787489570.7252</v>
       </c>
     </row>
     <row r="31">
@@ -1410,13 +1502,16 @@
         <v>3220084669.892337</v>
       </c>
       <c r="F31">
+        <v>110846107.01131</v>
+      </c>
+      <c r="G31">
+        <v>625049673.4831475</v>
+      </c>
+      <c r="H31">
         <v>1905647179.717403</v>
       </c>
-      <c r="G31">
-        <v>110846107.01131</v>
-      </c>
-      <c r="H31">
-        <v>625049673.4831475</v>
+      <c r="I31">
+        <v>2641542960.211861</v>
       </c>
     </row>
     <row r="32">
@@ -1444,13 +1539,16 @@
         <v>46252101895.28289</v>
       </c>
       <c r="F32">
+        <v>638935345.6212269</v>
+      </c>
+      <c r="G32">
+        <v>1415930934.143836</v>
+      </c>
+      <c r="H32">
         <v>33428750739.23972</v>
       </c>
-      <c r="G32">
-        <v>638935345.6212269</v>
-      </c>
-      <c r="H32">
-        <v>1415930934.143836</v>
+      <c r="I32">
+        <v>35483617019.00478</v>
       </c>
     </row>
     <row r="33">
@@ -1478,13 +1576,16 @@
         <v>21815941861.76949</v>
       </c>
       <c r="F33">
+        <v>478298839.9087869</v>
+      </c>
+      <c r="G33">
+        <v>2137406891.572792</v>
+      </c>
+      <c r="H33">
         <v>16612050214.25184</v>
       </c>
-      <c r="G33">
-        <v>478298839.9087869</v>
-      </c>
-      <c r="H33">
-        <v>2137406891.572792</v>
+      <c r="I33">
+        <v>19227755945.73342</v>
       </c>
     </row>
     <row r="34">
@@ -1512,13 +1613,16 @@
         <v>8026124109.258295</v>
       </c>
       <c r="F34">
+        <v>280703599.8836592</v>
+      </c>
+      <c r="G34">
+        <v>1619613569.607058</v>
+      </c>
+      <c r="H34">
         <v>4300596268.135082</v>
       </c>
-      <c r="G34">
-        <v>280703599.8836592</v>
-      </c>
-      <c r="H34">
-        <v>1619613569.607058</v>
+      <c r="I34">
+        <v>6200913437.625799</v>
       </c>
     </row>
     <row r="35">
@@ -1546,13 +1650,16 @@
         <v>9831294817.140665</v>
       </c>
       <c r="F35">
+        <v>285988059.2714108</v>
+      </c>
+      <c r="G35">
+        <v>1120959530.040821</v>
+      </c>
+      <c r="H35">
         <v>7148228374.551875</v>
       </c>
-      <c r="G35">
-        <v>285988059.2714108</v>
-      </c>
-      <c r="H35">
-        <v>1120959530.040821</v>
+      <c r="I35">
+        <v>8555175963.864107</v>
       </c>
     </row>
     <row r="36">
@@ -1580,13 +1687,16 @@
         <v>5637754905.019153</v>
       </c>
       <c r="F36">
+        <v>205229692.3212038</v>
+      </c>
+      <c r="G36">
+        <v>833051621.9205375</v>
+      </c>
+      <c r="H36">
         <v>3233926090.216887</v>
       </c>
-      <c r="G36">
-        <v>205229692.3212038</v>
-      </c>
-      <c r="H36">
-        <v>833051621.9205375</v>
+      <c r="I36">
+        <v>4272207404.458628</v>
       </c>
     </row>
     <row r="37">
@@ -1614,13 +1724,16 @@
         <v>4931992494.681465</v>
       </c>
       <c r="F37">
+        <v>431619439.9402493</v>
+      </c>
+      <c r="G37">
+        <v>746142122.7223783</v>
+      </c>
+      <c r="H37">
         <v>2756347507.754071</v>
       </c>
-      <c r="G37">
-        <v>431619439.9402493</v>
-      </c>
-      <c r="H37">
-        <v>746142122.7223783</v>
+      <c r="I37">
+        <v>3934109070.416699</v>
       </c>
     </row>
     <row r="38">
@@ -1648,13 +1761,16 @@
         <v>5637937985.450073</v>
       </c>
       <c r="F38">
+        <v>103027295.7028881</v>
+      </c>
+      <c r="G38">
+        <v>1027307901.433833</v>
+      </c>
+      <c r="H38">
         <v>3691254290.258091</v>
       </c>
-      <c r="G38">
-        <v>103027295.7028881</v>
-      </c>
-      <c r="H38">
-        <v>1027307901.433833</v>
+      <c r="I38">
+        <v>4821589487.394812</v>
       </c>
     </row>
     <row r="39">
@@ -1682,13 +1798,16 @@
         <v>455843454.6431302</v>
       </c>
       <c r="F39">
+        <v>7725601.057695556</v>
+      </c>
+      <c r="G39">
+        <v>109888836.1064307</v>
+      </c>
+      <c r="H39">
         <v>203421852.6539504</v>
       </c>
-      <c r="G39">
-        <v>7725601.057695556</v>
-      </c>
-      <c r="H39">
-        <v>109888836.1064307</v>
+      <c r="I39">
+        <v>321036289.8180767</v>
       </c>
     </row>
     <row r="40">
@@ -1716,13 +1835,16 @@
         <v>1993044849.294708</v>
       </c>
       <c r="F40">
+        <v>42177011.7793314</v>
+      </c>
+      <c r="G40">
+        <v>320356409.7103685</v>
+      </c>
+      <c r="H40">
         <v>1314879557.907933</v>
       </c>
-      <c r="G40">
-        <v>42177011.7793314</v>
-      </c>
-      <c r="H40">
-        <v>320356409.7103685</v>
+      <c r="I40">
+        <v>1677412979.397633</v>
       </c>
     </row>
     <row r="41">
@@ -1750,13 +1872,16 @@
         <v>907186413.7653745</v>
       </c>
       <c r="F41">
+        <v>26110017.44039726</v>
+      </c>
+      <c r="G41">
+        <v>122685260.1954668</v>
+      </c>
+      <c r="H41">
         <v>579419915.3624604</v>
       </c>
-      <c r="G41">
-        <v>26110017.44039726</v>
-      </c>
-      <c r="H41">
-        <v>122685260.1954668</v>
+      <c r="I41">
+        <v>728215192.9983244</v>
       </c>
     </row>
     <row r="42">
@@ -1784,13 +1909,16 @@
         <v>6309778028.180842</v>
       </c>
       <c r="F42">
+        <v>108093979.8757433</v>
+      </c>
+      <c r="G42">
+        <v>831392854.5865791</v>
+      </c>
+      <c r="H42">
         <v>4459494396.413063</v>
       </c>
-      <c r="G42">
-        <v>108093979.8757433</v>
-      </c>
-      <c r="H42">
-        <v>831392854.5865791</v>
+      <c r="I42">
+        <v>5398981230.875385</v>
       </c>
     </row>
     <row r="43">
@@ -1818,13 +1946,16 @@
         <v>1428476354.832583</v>
       </c>
       <c r="F43">
+        <v>19981067.1012981</v>
+      </c>
+      <c r="G43">
+        <v>285632839.6247346</v>
+      </c>
+      <c r="H43">
         <v>857937781.8678323</v>
       </c>
-      <c r="G43">
-        <v>19981067.1012981</v>
-      </c>
-      <c r="H43">
-        <v>285632839.6247346</v>
+      <c r="I43">
+        <v>1163551688.593865</v>
       </c>
     </row>
     <row r="44">
@@ -1852,13 +1983,16 @@
         <v>827147408.6964471</v>
       </c>
       <c r="F44">
+        <v>19668111.62799554</v>
+      </c>
+      <c r="G44">
+        <v>220663983.0651853</v>
+      </c>
+      <c r="H44">
         <v>406434202.842139</v>
       </c>
-      <c r="G44">
-        <v>19668111.62799554</v>
-      </c>
-      <c r="H44">
-        <v>220663983.0651853</v>
+      <c r="I44">
+        <v>646766297.5353198</v>
       </c>
     </row>
     <row r="45">
@@ -1886,13 +2020,16 @@
         <v>2506219496.846245</v>
       </c>
       <c r="F45">
+        <v>64983073.51545089</v>
+      </c>
+      <c r="G45">
+        <v>715026018.9748803</v>
+      </c>
+      <c r="H45">
         <v>1130546060.149777</v>
       </c>
-      <c r="G45">
-        <v>64983073.51545089</v>
-      </c>
-      <c r="H45">
-        <v>715026018.9748803</v>
+      <c r="I45">
+        <v>1910555152.640108</v>
       </c>
     </row>
     <row r="46">
@@ -1920,13 +2057,16 @@
         <v>124844916054.7112</v>
       </c>
       <c r="F46">
+        <v>2075292551.869008</v>
+      </c>
+      <c r="G46">
+        <v>10659102783.60263</v>
+      </c>
+      <c r="H46">
         <v>95003689021.22586</v>
       </c>
-      <c r="G46">
-        <v>2075292551.869008</v>
-      </c>
-      <c r="H46">
-        <v>10659102783.60263</v>
+      <c r="I46">
+        <v>107738084356.6975</v>
       </c>
     </row>
     <row r="47">
@@ -1954,13 +2094,16 @@
         <v>21574716142.44856</v>
       </c>
       <c r="F47">
+        <v>963532103.8221082</v>
+      </c>
+      <c r="G47">
+        <v>1896194371.389886</v>
+      </c>
+      <c r="H47">
         <v>9979066676.737642</v>
       </c>
-      <c r="G47">
-        <v>963532103.8221082</v>
-      </c>
-      <c r="H47">
-        <v>1896194371.389886</v>
+      <c r="I47">
+        <v>12838793151.94964</v>
       </c>
     </row>
     <row r="48">
@@ -1988,13 +2131,16 @@
         <v>5207505039.041711</v>
       </c>
       <c r="F48">
+        <v>92646111.36930265</v>
+      </c>
+      <c r="G48">
+        <v>520369885.1773167</v>
+      </c>
+      <c r="H48">
         <v>4102748542.587484</v>
       </c>
-      <c r="G48">
-        <v>92646111.36930265</v>
-      </c>
-      <c r="H48">
-        <v>520369885.1773167</v>
+      <c r="I48">
+        <v>4715764539.134104</v>
       </c>
     </row>
     <row r="49">
@@ -2022,13 +2168,16 @@
         <v>1919724089.307366</v>
       </c>
       <c r="F49">
+        <v>31098510.4562543</v>
+      </c>
+      <c r="G49">
+        <v>413710702.8322696</v>
+      </c>
+      <c r="H49">
         <v>1134772183.030459</v>
       </c>
-      <c r="G49">
-        <v>31098510.4562543</v>
-      </c>
-      <c r="H49">
-        <v>413710702.8322696</v>
+      <c r="I49">
+        <v>1579581396.318982</v>
       </c>
     </row>
     <row r="50">
@@ -2056,13 +2205,16 @@
         <v>9480004835.709679</v>
       </c>
       <c r="F50">
+        <v>210801906.8073884</v>
+      </c>
+      <c r="G50">
+        <v>1017234362.815547</v>
+      </c>
+      <c r="H50">
         <v>7228255417.570965</v>
       </c>
-      <c r="G50">
-        <v>210801906.8073884</v>
-      </c>
-      <c r="H50">
-        <v>1017234362.815547</v>
+      <c r="I50">
+        <v>8456291687.1939</v>
       </c>
     </row>
     <row r="51">
@@ -2090,13 +2242,16 @@
         <v>5556065263.170752</v>
       </c>
       <c r="F51">
+        <v>343215923.5424975</v>
+      </c>
+      <c r="G51">
+        <v>495617542.1414518</v>
+      </c>
+      <c r="H51">
         <v>4039525428.474568</v>
       </c>
-      <c r="G51">
-        <v>343215923.5424975</v>
-      </c>
-      <c r="H51">
-        <v>495617542.1414518</v>
+      <c r="I51">
+        <v>4878358894.158518</v>
       </c>
     </row>
     <row r="52">
@@ -2124,13 +2279,16 @@
         <v>21379627768.41022</v>
       </c>
       <c r="F52">
+        <v>1537341221.768464</v>
+      </c>
+      <c r="G52">
+        <v>931134113.9040629</v>
+      </c>
+      <c r="H52">
         <v>16380528603.52066</v>
       </c>
-      <c r="G52">
-        <v>1537341221.768464</v>
-      </c>
-      <c r="H52">
-        <v>931134113.9040629</v>
+      <c r="I52">
+        <v>18849003939.19319</v>
       </c>
     </row>
     <row r="53">
@@ -2158,13 +2316,16 @@
         <v>3191452667.726411</v>
       </c>
       <c r="F53">
+        <v>107750155.1534874</v>
+      </c>
+      <c r="G53">
+        <v>627036139.2014415</v>
+      </c>
+      <c r="H53">
         <v>1805427725.195386</v>
       </c>
-      <c r="G53">
-        <v>107750155.1534874</v>
-      </c>
-      <c r="H53">
-        <v>627036139.2014415</v>
+      <c r="I53">
+        <v>2540214019.550315</v>
       </c>
     </row>
     <row r="54">
@@ -2192,13 +2353,16 @@
         <v>45314421184.27672</v>
       </c>
       <c r="F54">
+        <v>864961798.8954036</v>
+      </c>
+      <c r="G54">
+        <v>1443195511.879069</v>
+      </c>
+      <c r="H54">
         <v>33315666029.11388</v>
       </c>
-      <c r="G54">
-        <v>864961798.8954036</v>
-      </c>
-      <c r="H54">
-        <v>1443195511.879069</v>
+      <c r="I54">
+        <v>35623823339.88836</v>
       </c>
     </row>
     <row r="55">
@@ -2226,13 +2390,16 @@
         <v>21986174580.59808</v>
       </c>
       <c r="F55">
+        <v>481516342.2281891</v>
+      </c>
+      <c r="G55">
+        <v>2063073603.831518</v>
+      </c>
+      <c r="H55">
         <v>15956228317.69605</v>
       </c>
-      <c r="G55">
-        <v>481516342.2281891</v>
-      </c>
-      <c r="H55">
-        <v>2063073603.831518</v>
+      <c r="I55">
+        <v>18500818263.75575</v>
       </c>
     </row>
     <row r="56">
@@ -2260,13 +2427,16 @@
         <v>8198584619.794216</v>
       </c>
       <c r="F56">
+        <v>267554711.5421727</v>
+      </c>
+      <c r="G56">
+        <v>1633382555.743364</v>
+      </c>
+      <c r="H56">
         <v>4495307321.525865</v>
       </c>
-      <c r="G56">
-        <v>267554711.5421727</v>
-      </c>
-      <c r="H56">
-        <v>1633382555.743364</v>
+      <c r="I56">
+        <v>6396244588.811401</v>
       </c>
     </row>
     <row r="57">
@@ -2294,13 +2464,16 @@
         <v>9426490719.841057</v>
       </c>
       <c r="F57">
+        <v>244944255.296012</v>
+      </c>
+      <c r="G57">
+        <v>1043133928.396817</v>
+      </c>
+      <c r="H57">
         <v>6648462963.191665</v>
       </c>
-      <c r="G57">
-        <v>244944255.296012</v>
-      </c>
-      <c r="H57">
-        <v>1043133928.396817</v>
+      <c r="I57">
+        <v>7936541146.884493</v>
       </c>
     </row>
     <row r="58">
@@ -2328,13 +2501,16 @@
         <v>5804206150.096444</v>
       </c>
       <c r="F58">
+        <v>210343871.4648434</v>
+      </c>
+      <c r="G58">
+        <v>873435204.9304057</v>
+      </c>
+      <c r="H58">
         <v>3569679933.999351</v>
       </c>
-      <c r="G58">
-        <v>210343871.4648434</v>
-      </c>
-      <c r="H58">
-        <v>873435204.9304057</v>
+      <c r="I58">
+        <v>4653459010.3946</v>
       </c>
     </row>
     <row r="59">
@@ -2362,13 +2538,16 @@
         <v>4593298080.783319</v>
       </c>
       <c r="F59">
+        <v>369262579.2959169</v>
+      </c>
+      <c r="G59">
+        <v>678114412.4666195</v>
+      </c>
+      <c r="H59">
         <v>2850628016.154872</v>
       </c>
-      <c r="G59">
-        <v>369262579.2959169</v>
-      </c>
-      <c r="H59">
-        <v>678114412.4666195</v>
+      <c r="I59">
+        <v>3898005007.917409</v>
       </c>
     </row>
     <row r="60">
@@ -2396,13 +2575,16 @@
         <v>6447903406.267325</v>
       </c>
       <c r="F60">
+        <v>117768610.5803009</v>
+      </c>
+      <c r="G60">
+        <v>1105703169.362833</v>
+      </c>
+      <c r="H60">
         <v>4098652569.600333</v>
       </c>
-      <c r="G60">
-        <v>117768610.5803009</v>
-      </c>
-      <c r="H60">
-        <v>1105703169.362833</v>
+      <c r="I60">
+        <v>5322124349.543467</v>
       </c>
     </row>
     <row r="61">
@@ -2430,13 +2612,16 @@
         <v>461250468.8867999</v>
       </c>
       <c r="F61">
+        <v>6996350.940620223</v>
+      </c>
+      <c r="G61">
+        <v>112437437.1364203</v>
+      </c>
+      <c r="H61">
         <v>212183004.7335486</v>
       </c>
-      <c r="G61">
-        <v>6996350.940620223</v>
-      </c>
-      <c r="H61">
-        <v>112437437.1364203</v>
+      <c r="I61">
+        <v>331616792.8105891</v>
       </c>
     </row>
     <row r="62">
@@ -2464,13 +2649,16 @@
         <v>2150466513.575008</v>
       </c>
       <c r="F62">
+        <v>41377393.39284795</v>
+      </c>
+      <c r="G62">
+        <v>320922427.0905438</v>
+      </c>
+      <c r="H62">
         <v>1486201765.566284</v>
       </c>
-      <c r="G62">
-        <v>41377393.39284795</v>
-      </c>
-      <c r="H62">
-        <v>320922427.0905438</v>
+      <c r="I62">
+        <v>1848501586.049675</v>
       </c>
     </row>
     <row r="63">
@@ -2498,13 +2686,16 @@
         <v>880312510.4949926</v>
       </c>
       <c r="F63">
+        <v>8966988.299421869</v>
+      </c>
+      <c r="G63">
+        <v>108760742.2575028</v>
+      </c>
+      <c r="H63">
         <v>632895191.8625053</v>
       </c>
-      <c r="G63">
-        <v>8966988.299421869</v>
-      </c>
-      <c r="H63">
-        <v>108760742.2575028</v>
+      <c r="I63">
+        <v>750622922.41943</v>
       </c>
     </row>
     <row r="64">
@@ -2532,13 +2723,16 @@
         <v>6539396133.562248</v>
       </c>
       <c r="F64">
+        <v>116892956.4714911</v>
+      </c>
+      <c r="G64">
+        <v>862039564.9519972</v>
+      </c>
+      <c r="H64">
         <v>5009345880.045784</v>
       </c>
-      <c r="G64">
-        <v>116892956.4714911</v>
-      </c>
-      <c r="H64">
-        <v>862039564.9519972</v>
+      <c r="I64">
+        <v>5988278401.469273</v>
       </c>
     </row>
     <row r="65">
@@ -2566,13 +2760,16 @@
         <v>1470385192.486953</v>
       </c>
       <c r="F65">
+        <v>23786190.25128651</v>
+      </c>
+      <c r="G65">
+        <v>291902455.6306497</v>
+      </c>
+      <c r="H65">
         <v>881173860.1875368</v>
       </c>
-      <c r="G65">
-        <v>23786190.25128651</v>
-      </c>
-      <c r="H65">
-        <v>291902455.6306497</v>
+      <c r="I65">
+        <v>1196862506.069473</v>
       </c>
     </row>
     <row r="66">
@@ -2600,13 +2797,16 @@
         <v>780381563.789102</v>
       </c>
       <c r="F66">
+        <v>19409109.47693598</v>
+      </c>
+      <c r="G66">
+        <v>205291481.2610506</v>
+      </c>
+      <c r="H66">
         <v>379614733.3814269</v>
       </c>
-      <c r="G66">
-        <v>19409109.47693598</v>
-      </c>
-      <c r="H66">
-        <v>205291481.2610506</v>
+      <c r="I66">
+        <v>604315324.1194135</v>
       </c>
     </row>
     <row r="67">
@@ -2634,13 +2834,16 @@
         <v>3670740364.707776</v>
       </c>
       <c r="F67">
+        <v>96774530.23259193</v>
+      </c>
+      <c r="G67">
+        <v>834955683.6954273</v>
+      </c>
+      <c r="H67">
         <v>2122207867.657308</v>
       </c>
-      <c r="G67">
-        <v>96774530.23259193</v>
-      </c>
-      <c r="H67">
-        <v>834955683.6954273</v>
+      <c r="I67">
+        <v>3053938081.585327</v>
       </c>
     </row>
     <row r="68">
@@ -2668,13 +2871,16 @@
         <v>121268265649.2417</v>
       </c>
       <c r="F68">
+        <v>2151248327.102178</v>
+      </c>
+      <c r="G68">
+        <v>10407662770.49198</v>
+      </c>
+      <c r="H68">
         <v>90247487281.19966</v>
       </c>
-      <c r="G68">
-        <v>2151248327.102178</v>
-      </c>
-      <c r="H68">
-        <v>10407662770.49198</v>
+      <c r="I68">
+        <v>102806398378.7938</v>
       </c>
     </row>
     <row r="69">
@@ -2702,13 +2908,16 @@
         <v>21742095142.10335</v>
       </c>
       <c r="F69">
+        <v>630576467.7555451</v>
+      </c>
+      <c r="G69">
+        <v>1939890340.238013</v>
+      </c>
+      <c r="H69">
         <v>9860906831.997942</v>
       </c>
-      <c r="G69">
-        <v>630576467.7555451</v>
-      </c>
-      <c r="H69">
-        <v>1939890340.238013</v>
+      <c r="I69">
+        <v>12431373639.9915</v>
       </c>
     </row>
     <row r="70">
@@ -2736,13 +2945,16 @@
         <v>5274305032.077625</v>
       </c>
       <c r="F70">
+        <v>92433060.46195005</v>
+      </c>
+      <c r="G70">
+        <v>489451095.4099756</v>
+      </c>
+      <c r="H70">
         <v>4160072404.604853</v>
       </c>
-      <c r="G70">
-        <v>92433060.46195005</v>
-      </c>
-      <c r="H70">
-        <v>489451095.4099756</v>
+      <c r="I70">
+        <v>4741956560.476778</v>
       </c>
     </row>
     <row r="71">
@@ -2770,13 +2982,16 @@
         <v>1642107195.289813</v>
       </c>
       <c r="F71">
+        <v>31701502.10596269</v>
+      </c>
+      <c r="G71">
+        <v>366517354.8740518</v>
+      </c>
+      <c r="H71">
         <v>937921939.62379</v>
       </c>
-      <c r="G71">
-        <v>31701502.10596269</v>
-      </c>
-      <c r="H71">
-        <v>366517354.8740518</v>
+      <c r="I71">
+        <v>1336140796.603805</v>
       </c>
     </row>
     <row r="72">
@@ -2804,13 +3019,16 @@
         <v>7923631470.722066</v>
       </c>
       <c r="F72">
+        <v>184776064.2770854</v>
+      </c>
+      <c r="G72">
+        <v>871772145.1548287</v>
+      </c>
+      <c r="H72">
         <v>6143982401.244768</v>
       </c>
-      <c r="G72">
-        <v>184776064.2770854</v>
-      </c>
-      <c r="H72">
-        <v>871772145.1548287</v>
+      <c r="I72">
+        <v>7200530610.676683</v>
       </c>
     </row>
     <row r="73">
@@ -2838,13 +3056,16 @@
         <v>5342184681.762707</v>
       </c>
       <c r="F73">
+        <v>352257759.2559306</v>
+      </c>
+      <c r="G73">
+        <v>615075426.6876562</v>
+      </c>
+      <c r="H73">
         <v>3773605950.599112</v>
       </c>
-      <c r="G73">
-        <v>352257759.2559306</v>
-      </c>
-      <c r="H73">
-        <v>615075426.6876562</v>
+      <c r="I73">
+        <v>4740939136.542699</v>
       </c>
     </row>
     <row r="74">
@@ -2872,13 +3093,16 @@
         <v>31516960556.74657</v>
       </c>
       <c r="F74">
+        <v>2471431872.963317</v>
+      </c>
+      <c r="G74">
+        <v>1070940094.096209</v>
+      </c>
+      <c r="H74">
         <v>21590655560.11375</v>
       </c>
-      <c r="G74">
-        <v>2471431872.963317</v>
-      </c>
-      <c r="H74">
-        <v>1070940094.096209</v>
+      <c r="I74">
+        <v>25133027527.17328</v>
       </c>
     </row>
     <row r="75">
@@ -2906,13 +3130,16 @@
         <v>2911861734.485484</v>
       </c>
       <c r="F75">
+        <v>87001830.01661593</v>
+      </c>
+      <c r="G75">
+        <v>594406423.0309266</v>
+      </c>
+      <c r="H75">
         <v>1607794403.477024</v>
       </c>
-      <c r="G75">
-        <v>87001830.01661593</v>
-      </c>
-      <c r="H75">
-        <v>594406423.0309266</v>
+      <c r="I75">
+        <v>2289202656.524567</v>
       </c>
     </row>
     <row r="76">
@@ -2940,13 +3167,16 @@
         <v>38520685232.83389</v>
       </c>
       <c r="F76">
+        <v>962187433.8621726</v>
+      </c>
+      <c r="G76">
+        <v>1570925381.037049</v>
+      </c>
+      <c r="H76">
         <v>25247044034.54969</v>
       </c>
-      <c r="G76">
-        <v>962187433.8621726</v>
-      </c>
-      <c r="H76">
-        <v>1570925381.037049</v>
+      <c r="I76">
+        <v>27780156849.44891</v>
       </c>
     </row>
     <row r="77">
@@ -2974,13 +3204,16 @@
         <v>21896578892.97193</v>
       </c>
       <c r="F77">
+        <v>715587954.0326998</v>
+      </c>
+      <c r="G77">
+        <v>1865578602.058194</v>
+      </c>
+      <c r="H77">
         <v>15781973338.15402</v>
       </c>
-      <c r="G77">
-        <v>715587954.0326998</v>
-      </c>
-      <c r="H77">
-        <v>1865578602.058194</v>
+      <c r="I77">
+        <v>18363139894.24492</v>
       </c>
     </row>
     <row r="78">
@@ -3008,13 +3241,16 @@
         <v>7771215361.899369</v>
       </c>
       <c r="F78">
+        <v>246180213.0047743</v>
+      </c>
+      <c r="G78">
+        <v>1623599403.351361</v>
+      </c>
+      <c r="H78">
         <v>3989245716.540845</v>
       </c>
-      <c r="G78">
-        <v>246180213.0047743</v>
-      </c>
-      <c r="H78">
-        <v>1623599403.351361</v>
+      <c r="I78">
+        <v>5859025332.89698</v>
       </c>
     </row>
     <row r="79">
@@ -3042,13 +3278,16 @@
         <v>9777983533.251823</v>
       </c>
       <c r="F79">
+        <v>333821177.1801673</v>
+      </c>
+      <c r="G79">
+        <v>1138624440.036006</v>
+      </c>
+      <c r="H79">
         <v>6788434902.473559</v>
       </c>
-      <c r="G79">
-        <v>333821177.1801673</v>
-      </c>
-      <c r="H79">
-        <v>1138624440.036006</v>
+      <c r="I79">
+        <v>8260880519.689733</v>
       </c>
     </row>
     <row r="80">
@@ -3076,13 +3315,16 @@
         <v>5316684392.26146</v>
       </c>
       <c r="F80">
+        <v>209913626.6381939</v>
+      </c>
+      <c r="G80">
+        <v>905641378.9759591</v>
+      </c>
+      <c r="H80">
         <v>3207328544.915032</v>
       </c>
-      <c r="G80">
-        <v>209913626.6381939</v>
-      </c>
-      <c r="H80">
-        <v>905641378.9759591</v>
+      <c r="I80">
+        <v>4322883550.529184</v>
       </c>
     </row>
     <row r="81">
@@ -3110,13 +3352,16 @@
         <v>3615718576.392448</v>
       </c>
       <c r="F81">
+        <v>206765688.5991947</v>
+      </c>
+      <c r="G81">
+        <v>519820920.6041341</v>
+      </c>
+      <c r="H81">
         <v>2207586272.541362</v>
       </c>
-      <c r="G81">
-        <v>206765688.5991947</v>
-      </c>
-      <c r="H81">
-        <v>519820920.6041341</v>
+      <c r="I81">
+        <v>2934172881.744691</v>
       </c>
     </row>
     <row r="82">
@@ -3144,13 +3389,16 @@
         <v>5728178694.0385</v>
       </c>
       <c r="F82">
+        <v>104357813.476803</v>
+      </c>
+      <c r="G82">
+        <v>967399402.8170106</v>
+      </c>
+      <c r="H82">
         <v>3631366724.912335</v>
       </c>
-      <c r="G82">
-        <v>104357813.476803</v>
-      </c>
-      <c r="H82">
-        <v>967399402.8170106</v>
+      <c r="I82">
+        <v>4703123941.206149</v>
       </c>
     </row>
     <row r="83">
@@ -3178,13 +3426,16 @@
         <v>823018593.727731</v>
       </c>
       <c r="F83">
+        <v>10763362.42557078</v>
+      </c>
+      <c r="G83">
+        <v>160806344.7703987</v>
+      </c>
+      <c r="H83">
         <v>310503994.3993295</v>
       </c>
-      <c r="G83">
-        <v>10763362.42557078</v>
-      </c>
-      <c r="H83">
-        <v>160806344.7703987</v>
+      <c r="I83">
+        <v>482073701.595299</v>
       </c>
     </row>
     <row r="84">
@@ -3212,13 +3463,16 @@
         <v>2163674048.391868</v>
       </c>
       <c r="F84">
+        <v>47542762.34620465</v>
+      </c>
+      <c r="G84">
+        <v>293508499.1596419</v>
+      </c>
+      <c r="H84">
         <v>1449772253.150288</v>
       </c>
-      <c r="G84">
-        <v>47542762.34620465</v>
-      </c>
-      <c r="H84">
-        <v>293508499.1596419</v>
+      <c r="I84">
+        <v>1790823514.656135</v>
       </c>
     </row>
     <row r="85">
@@ -3246,13 +3500,16 @@
         <v>810014980.355772</v>
       </c>
       <c r="F85">
+        <v>17146869.12392494</v>
+      </c>
+      <c r="G85">
+        <v>127772536.9225842</v>
+      </c>
+      <c r="H85">
         <v>492393569.4456207</v>
       </c>
-      <c r="G85">
-        <v>17146869.12392494</v>
-      </c>
-      <c r="H85">
-        <v>127772536.9225842</v>
+      <c r="I85">
+        <v>637312975.4921298</v>
       </c>
     </row>
     <row r="86">
@@ -3280,13 +3537,16 @@
         <v>4636929579.603268</v>
       </c>
       <c r="F86">
+        <v>108241466.0479839</v>
+      </c>
+      <c r="G86">
+        <v>683691357.1345735</v>
+      </c>
+      <c r="H86">
         <v>3162420164.580787</v>
       </c>
-      <c r="G86">
-        <v>108241466.0479839</v>
-      </c>
-      <c r="H86">
-        <v>683691357.1345735</v>
+      <c r="I86">
+        <v>3954352987.763344</v>
       </c>
     </row>
     <row r="87">
@@ -3314,13 +3574,16 @@
         <v>1453806324.999314</v>
       </c>
       <c r="F87">
+        <v>26194247.45678014</v>
+      </c>
+      <c r="G87">
+        <v>295710926.797643</v>
+      </c>
+      <c r="H87">
         <v>877172755.5013497</v>
       </c>
-      <c r="G87">
-        <v>26194247.45678014</v>
-      </c>
-      <c r="H87">
-        <v>295710926.797643</v>
+      <c r="I87">
+        <v>1199077929.755773</v>
       </c>
     </row>
     <row r="88">
@@ -3348,13 +3611,16 @@
         <v>1074475797.334455</v>
       </c>
       <c r="F88">
+        <v>19636745.14579293</v>
+      </c>
+      <c r="G88">
+        <v>228805475.3065312</v>
+      </c>
+      <c r="H88">
         <v>561910297.836695</v>
       </c>
-      <c r="G88">
-        <v>19636745.14579293</v>
-      </c>
-      <c r="H88">
-        <v>228805475.3065312</v>
+      <c r="I88">
+        <v>810352518.2890191</v>
       </c>
     </row>
     <row r="89">
@@ -3382,13 +3648,16 @@
         <v>3170363579.110478</v>
       </c>
       <c r="F89">
+        <v>53652224.81176437</v>
+      </c>
+      <c r="G89">
+        <v>677968762.6616514</v>
+      </c>
+      <c r="H89">
         <v>1740130386.857473</v>
       </c>
-      <c r="G89">
-        <v>53652224.81176437</v>
-      </c>
-      <c r="H89">
-        <v>677968762.6616514</v>
+      <c r="I89">
+        <v>2471751374.330888</v>
       </c>
     </row>
     <row r="90">
@@ -3416,13 +3685,16 @@
         <v>118110979172.458</v>
       </c>
       <c r="F90">
+        <v>2269993870.05785</v>
+      </c>
+      <c r="G90">
+        <v>10329094454.31166</v>
+      </c>
+      <c r="H90">
         <v>92343430208.46491</v>
       </c>
-      <c r="G90">
-        <v>2269993870.05785</v>
-      </c>
-      <c r="H90">
-        <v>10329094454.31166</v>
+      <c r="I90">
+        <v>104942518532.8344</v>
       </c>
     </row>
     <row r="91">
@@ -3450,13 +3722,16 @@
         <v>16764289890.60916</v>
       </c>
       <c r="F91">
+        <v>676516379.5498303</v>
+      </c>
+      <c r="G91">
+        <v>1929159135.926626</v>
+      </c>
+      <c r="H91">
         <v>10272384291.63499</v>
       </c>
-      <c r="G91">
-        <v>676516379.5498303</v>
-      </c>
-      <c r="H91">
-        <v>1929159135.926626</v>
+      <c r="I91">
+        <v>12878059807.11145</v>
       </c>
     </row>
     <row r="92">
@@ -3484,13 +3759,16 @@
         <v>5030925211.24691</v>
       </c>
       <c r="F92">
+        <v>89230814.10704526</v>
+      </c>
+      <c r="G92">
+        <v>448545897.903846</v>
+      </c>
+      <c r="H92">
         <v>3859255507.198658</v>
       </c>
-      <c r="G92">
-        <v>89230814.10704526</v>
-      </c>
-      <c r="H92">
-        <v>448545897.903846</v>
+      <c r="I92">
+        <v>4397032219.209549</v>
       </c>
     </row>
     <row r="93">
@@ -3518,13 +3796,16 @@
         <v>1507464880.985417</v>
       </c>
       <c r="F93">
+        <v>23287546.12310186</v>
+      </c>
+      <c r="G93">
+        <v>297570740.7287338</v>
+      </c>
+      <c r="H93">
         <v>862071882.5546609</v>
       </c>
-      <c r="G93">
-        <v>23287546.12310186</v>
-      </c>
-      <c r="H93">
-        <v>297570740.7287338</v>
+      <c r="I93">
+        <v>1182930169.406497</v>
       </c>
     </row>
     <row r="94">
@@ -3552,13 +3833,16 @@
         <v>6874379297.81112</v>
       </c>
       <c r="F94">
+        <v>148762461.6878725</v>
+      </c>
+      <c r="G94">
+        <v>869720098.4244269</v>
+      </c>
+      <c r="H94">
         <v>5535566743.416999</v>
       </c>
-      <c r="G94">
-        <v>148762461.6878725</v>
-      </c>
-      <c r="H94">
-        <v>869720098.4244269</v>
+      <c r="I94">
+        <v>6554049303.529299</v>
       </c>
     </row>
     <row r="95">
@@ -3586,13 +3870,16 @@
         <v>5079132686.538122</v>
       </c>
       <c r="F95">
+        <v>355905779.6335077</v>
+      </c>
+      <c r="G95">
+        <v>585493493.0977582</v>
+      </c>
+      <c r="H95">
         <v>3959171946.361159</v>
       </c>
-      <c r="G95">
-        <v>355905779.6335077</v>
-      </c>
-      <c r="H95">
-        <v>585493493.0977582</v>
+      <c r="I95">
+        <v>4900571219.092424</v>
       </c>
     </row>
     <row r="96">
@@ -3620,13 +3907,16 @@
         <v>26940682192.12014</v>
       </c>
       <c r="F96">
+        <v>2340458470.47994</v>
+      </c>
+      <c r="G96">
+        <v>760333670.8428174</v>
+      </c>
+      <c r="H96">
         <v>19521097585.6805</v>
       </c>
-      <c r="G96">
-        <v>2340458470.47994</v>
-      </c>
-      <c r="H96">
-        <v>760333670.8428174</v>
+      <c r="I96">
+        <v>22621889727.00326</v>
       </c>
     </row>
     <row r="97">
@@ -3654,13 +3944,16 @@
         <v>2773623884.412827</v>
       </c>
       <c r="F97">
+        <v>101419935.9699496</v>
+      </c>
+      <c r="G97">
+        <v>582127507.4976062</v>
+      </c>
+      <c r="H97">
         <v>1527940718.083158</v>
       </c>
-      <c r="G97">
-        <v>101419935.9699496</v>
-      </c>
-      <c r="H97">
-        <v>582127507.4976062</v>
+      <c r="I97">
+        <v>2211488161.550714</v>
       </c>
     </row>
     <row r="98">
@@ -3688,13 +3981,16 @@
         <v>27726507289.57861</v>
       </c>
       <c r="F98">
+        <v>813753917.5563287</v>
+      </c>
+      <c r="G98">
+        <v>1489851913.310401</v>
+      </c>
+      <c r="H98">
         <v>20206336301.92183</v>
       </c>
-      <c r="G98">
-        <v>813753917.5563287</v>
-      </c>
-      <c r="H98">
-        <v>1489851913.310401</v>
+      <c r="I98">
+        <v>22509942132.78856</v>
       </c>
     </row>
     <row r="99">
@@ -3722,13 +4018,16 @@
         <v>19786060440.29925</v>
       </c>
       <c r="F99">
+        <v>892602445.2876533</v>
+      </c>
+      <c r="G99">
+        <v>1975274306.721509</v>
+      </c>
+      <c r="H99">
         <v>14807020402.17473</v>
       </c>
-      <c r="G99">
-        <v>892602445.2876533</v>
-      </c>
-      <c r="H99">
-        <v>1975274306.721509</v>
+      <c r="I99">
+        <v>17674897154.18389</v>
       </c>
     </row>
     <row r="100">
@@ -3756,13 +4055,16 @@
         <v>10150737463.56696</v>
       </c>
       <c r="F100">
+        <v>326031941.2740071</v>
+      </c>
+      <c r="G100">
+        <v>1765668588.372769</v>
+      </c>
+      <c r="H100">
         <v>5149599299.005324</v>
       </c>
-      <c r="G100">
-        <v>326031941.2740071</v>
-      </c>
-      <c r="H100">
-        <v>1765668588.372769</v>
+      <c r="I100">
+        <v>7241299828.652101</v>
       </c>
     </row>
     <row r="101">
@@ -3790,13 +4092,16 @@
         <v>8291500990.717175</v>
       </c>
       <c r="F101">
+        <v>304021506.415814</v>
+      </c>
+      <c r="G101">
+        <v>1028453705.43898</v>
+      </c>
+      <c r="H101">
         <v>5699485603.268644</v>
       </c>
-      <c r="G101">
-        <v>304021506.415814</v>
-      </c>
-      <c r="H101">
-        <v>1028453705.43898</v>
+      <c r="I101">
+        <v>7031960815.123438</v>
       </c>
     </row>
     <row r="102">
@@ -3824,13 +4129,16 @@
         <v>4434977808.145079</v>
       </c>
       <c r="F102">
+        <v>204602777.5079987</v>
+      </c>
+      <c r="G102">
+        <v>815534419.5687133</v>
+      </c>
+      <c r="H102">
         <v>2586022917.476452</v>
       </c>
-      <c r="G102">
-        <v>204602777.5079987</v>
-      </c>
-      <c r="H102">
-        <v>815534419.5687133</v>
+      <c r="I102">
+        <v>3606160114.553164</v>
       </c>
     </row>
     <row r="103">
@@ -3858,13 +4166,16 @@
         <v>3412680508.472557</v>
       </c>
       <c r="F103">
+        <v>205549411.4699908</v>
+      </c>
+      <c r="G103">
+        <v>533251697.0537365</v>
+      </c>
+      <c r="H103">
         <v>2079224453.437772</v>
       </c>
-      <c r="G103">
-        <v>205549411.4699908</v>
-      </c>
-      <c r="H103">
-        <v>533251697.0537365</v>
+      <c r="I103">
+        <v>2818025561.961499</v>
       </c>
     </row>
     <row r="104">
@@ -3892,13 +4203,16 @@
         <v>5082531491.303366</v>
       </c>
       <c r="F104">
+        <v>142645809.1729669</v>
+      </c>
+      <c r="G104">
+        <v>888061217.093766</v>
+      </c>
+      <c r="H104">
         <v>3205989483.528529</v>
       </c>
-      <c r="G104">
-        <v>142645809.1729669</v>
-      </c>
-      <c r="H104">
-        <v>888061217.093766</v>
+      <c r="I104">
+        <v>4236696509.795262</v>
       </c>
     </row>
     <row r="105">
@@ -3926,13 +4240,16 @@
         <v>1092996659.200332</v>
       </c>
       <c r="F105">
+        <v>17417028.55822952</v>
+      </c>
+      <c r="G105">
+        <v>161129046.5108907</v>
+      </c>
+      <c r="H105">
         <v>536720444.2918188</v>
       </c>
-      <c r="G105">
-        <v>17417028.55822952</v>
-      </c>
-      <c r="H105">
-        <v>161129046.5108907</v>
+      <c r="I105">
+        <v>715266519.360939</v>
       </c>
     </row>
     <row r="106">
@@ -3960,13 +4277,16 @@
         <v>2200382845.932884</v>
       </c>
       <c r="F106">
+        <v>47758863.56799175</v>
+      </c>
+      <c r="G106">
+        <v>306841321.8271991</v>
+      </c>
+      <c r="H106">
         <v>1564508302.735793</v>
       </c>
-      <c r="G106">
-        <v>47758863.56799175</v>
-      </c>
-      <c r="H106">
-        <v>306841321.8271991</v>
+      <c r="I106">
+        <v>1919108488.130984</v>
       </c>
     </row>
     <row r="107">
@@ -3994,13 +4314,16 @@
         <v>915738092.3749148</v>
       </c>
       <c r="F107">
+        <v>13040732.68645064</v>
+      </c>
+      <c r="G107">
+        <v>138464861.9504437</v>
+      </c>
+      <c r="H107">
         <v>520036121.0231522</v>
       </c>
-      <c r="G107">
-        <v>13040732.68645064</v>
-      </c>
-      <c r="H107">
-        <v>138464861.9504437</v>
+      <c r="I107">
+        <v>671541715.6600466</v>
       </c>
     </row>
     <row r="108">
@@ -4028,13 +4351,16 @@
         <v>2521862907.225469</v>
       </c>
       <c r="F108">
+        <v>89819701.50326979</v>
+      </c>
+      <c r="G108">
+        <v>584434994.0017369</v>
+      </c>
+      <c r="H108">
         <v>1500685985.405906</v>
       </c>
-      <c r="G108">
-        <v>89819701.50326979</v>
-      </c>
-      <c r="H108">
-        <v>584434994.0017369</v>
+      <c r="I108">
+        <v>2174940680.910913</v>
       </c>
     </row>
     <row r="109">
@@ -4062,13 +4388,16 @@
         <v>1422255167.724342</v>
       </c>
       <c r="F109">
+        <v>27381196.85510025</v>
+      </c>
+      <c r="G109">
+        <v>267651395.8243227</v>
+      </c>
+      <c r="H109">
         <v>877177958.5381012</v>
       </c>
-      <c r="G109">
-        <v>27381196.85510025</v>
-      </c>
-      <c r="H109">
-        <v>267651395.8243227</v>
+      <c r="I109">
+        <v>1172210551.217524</v>
       </c>
     </row>
     <row r="110">
@@ -4096,13 +4425,16 @@
         <v>1041290246.828475</v>
       </c>
       <c r="F110">
+        <v>17949843.27486381</v>
+      </c>
+      <c r="G110">
+        <v>208078706.8652671</v>
+      </c>
+      <c r="H110">
         <v>568557913.2591363</v>
       </c>
-      <c r="G110">
-        <v>17949843.27486381</v>
-      </c>
-      <c r="H110">
-        <v>208078706.8652671</v>
+      <c r="I110">
+        <v>794586463.3992672</v>
       </c>
     </row>
     <row r="111">
@@ -4130,13 +4462,16 @@
         <v>2589248848.200922</v>
       </c>
       <c r="F111">
+        <v>57698956.31628484</v>
+      </c>
+      <c r="G111">
+        <v>569579505.5288216</v>
+      </c>
+      <c r="H111">
         <v>1232161394.682743</v>
       </c>
-      <c r="G111">
-        <v>57698956.31628484</v>
-      </c>
-      <c r="H111">
-        <v>569579505.5288216</v>
+      <c r="I111">
+        <v>1859439856.52785</v>
       </c>
     </row>
   </sheetData>
